--- a/biology/Médecine/1275_en_santé_et_médecine/1275_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1275_en_santé_et_médecine/1275_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1275_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1275_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1275 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1275_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1275_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>François André († 1311[1]), plus tard archiatre du roi de Naples, et médecin de ses fils restés en otage à Barcelone de 1288 à 1295, reçoit sa licence en médecine (« licentia practicandi medicinam[2] »).
-Arnould, chanoine de Tournay, fonde à Maldeghem dans le comté de Flandre un hôpital qui sera incorporé à celui de Bruges[3].
-Le vizir seldjoukide Muineddin Süleyman Pervâne fonde une école de médecine à Tokat en Anatolie, sous le sultanat de Roum[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>François André († 1311), plus tard archiatre du roi de Naples, et médecin de ses fils restés en otage à Barcelone de 1288 à 1295, reçoit sa licence en médecine (« licentia practicandi medicinam »).
+Arnould, chanoine de Tournay, fonde à Maldeghem dans le comté de Flandre un hôpital qui sera incorporé à celui de Bruges.
+Le vizir seldjoukide Muineddin Süleyman Pervâne fonde une école de médecine à Tokat en Anatolie, sous le sultanat de Roum.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1275_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1275_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Guillaume de Salicet (1210-1277) publie la dernière version de sa Chirurgie, dont  la première était achevée dès 1268[5],[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Guillaume de Salicet (1210-1277) publie la dernière version de sa Chirurgie, dont  la première était achevée dès 1268,.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1275_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1275_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Bertrand, médecin de Vienne, au service de Philippe Ier, comte de Savoie[1].
-Fl. Brun, médecin, témoin des dernières volontés de Guigues Alleman, au château d'Uriage[1].
-Fl. Pierre Salvatoris, médecin de Decan II, seigneur d'Uzès[7].
-1257-av. 1275 : fl. Jacques, médecin à Lyon[1].
-1275-1278 : fl. Adam de Braye, clerc de l'hôtel de Charles Ier, roi de Sicile, et son médecin[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Bertrand, médecin de Vienne, au service de Philippe Ier, comte de Savoie.
+Fl. Brun, médecin, témoin des dernières volontés de Guigues Alleman, au château d'Uriage.
+Fl. Pierre Salvatoris, médecin de Decan II, seigneur d'Uzès.
+1257-av. 1275 : fl. Jacques, médecin à Lyon.
+1275-1278 : fl. Adam de Braye, clerc de l'hôtel de Charles Ier, roi de Sicile, et son médecin.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1275_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1275_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vers 1275 :
-Pierre de La Palud (mort en 1342), dominicain, docteur en théologie à Paris, patriarche de Jérusalem ; ne semble pas s'être occupé de médecine, sauf pour avoir rapporté d'Orient une recette de pilules qui porte son nom[7],[8].
-Marsile de Padoue (mort en 1342 ou 1343), juriste, théologien, diplomate et philosophe politique italien, également médecin de formation, dont on a pu dire que son « anthropologie politique [était] constellée de notions médicales et d'allusions biologiques : tempérament, conflit des éléments, corruption et agrégation, génération et naissance, inclination[9] ».</t>
+Pierre de La Palud (mort en 1342), dominicain, docteur en théologie à Paris, patriarche de Jérusalem ; ne semble pas s'être occupé de médecine, sauf pour avoir rapporté d'Orient une recette de pilules qui porte son nom,.
+Marsile de Padoue (mort en 1342 ou 1343), juriste, théologien, diplomate et philosophe politique italien, également médecin de formation, dont on a pu dire que son « anthropologie politique [était] constellée de notions médicales et d'allusions biologiques : tempérament, conflit des éléments, corruption et agrégation, génération et naissance, inclination ».</t>
         </is>
       </c>
     </row>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1275_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1275_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,10 +659,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>13 juillet : Jean de Toleto (né à une date inconnue), d'origine anglaise, cistercien, cardinal, médecin du pape Innocent IV qu'il assiste en 1254 dans sa dernière maladie[7].
-Après 1275 et probablement entre 1280 et 1285 : Guillaume de Salicet (né en 1210), moine dominicain et médecin lombard[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>13 juillet : Jean de Toleto (né à une date inconnue), d'origine anglaise, cistercien, cardinal, médecin du pape Innocent IV qu'il assiste en 1254 dans sa dernière maladie.
+Après 1275 et probablement entre 1280 et 1285 : Guillaume de Salicet (né en 1210), moine dominicain et médecin lombard.</t>
         </is>
       </c>
     </row>
